--- a/Portfolio-task-1/data-entry.xlsx
+++ b/Portfolio-task-1/data-entry.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myune-my.sharepoint.com/personal/spullen3_myune_edu_au/Documents/HINQ302/Assignment-2/Portfolio-task-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2DFFE6C3-2F89-4E26-880B-CA264A410427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{AC019D64-E02A-443E-85E3-13124E102690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FD7685B-A01E-498C-837D-64E5A29C1DE1}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="-12" yWindow="12" windowWidth="9516" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="refined-land-csv-May-1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="474">
   <si>
     <t>DIGITAL_OBJECT - URL_TEXT</t>
   </si>
@@ -1429,9 +1429,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>12/6p</t>
-  </si>
-  <si>
     <t>np</t>
   </si>
   <si>
@@ -1442,12 +1439,15 @@
   </si>
   <si>
     <t>North east commencing from the eastern angle of Lot one by three hundred and thirty six links along the High Road leading from Launceston to Hobart Town on the South East by three hundred and fifty links along an allotment located to Captain Clarke on the south west by three hundred links along lot four and on the north west by three hundred and eighty links along Lot one to the point of commencement and which said one acre and twenty three perches of land are delineated in the diagram in the margin of these presents]</t>
+  </si>
+  <si>
+    <t>SUM_PENCE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2281,27 +2281,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="0.77734375" customWidth="1"/>
-    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="21" width="21.44140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2357,13 +2346,16 @@
         <v>466</v>
       </c>
       <c r="S1" t="s">
+        <v>473</v>
+      </c>
+      <c r="T1" t="s">
         <v>467</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2412,494 +2404,524 @@
       <c r="R2">
         <v>0</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>470</v>
+      </c>
+      <c r="U2" t="s">
         <v>471</v>
       </c>
-      <c r="T2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>1842</v>
       </c>
       <c r="I3" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="O3">
         <v>1842</v>
       </c>
       <c r="Q3">
+        <v>20</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
         <v>36</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3" t="s">
-        <v>471</v>
-      </c>
-      <c r="T3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" t="s">
-        <v>129</v>
-      </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>1842</v>
+        <v>1852</v>
       </c>
       <c r="I4" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="O4">
-        <v>1842</v>
+        <v>1852</v>
       </c>
       <c r="Q4">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="H5">
-        <v>1842</v>
+        <v>1865</v>
       </c>
       <c r="I5" t="s">
-        <v>367</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s">
         <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>368</v>
+        <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="O5">
-        <v>1842</v>
+        <v>1865</v>
       </c>
       <c r="Q5">
-        <v>36</v>
+        <v>320</v>
       </c>
       <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="S5">
+        <v>6</v>
+      </c>
+      <c r="T5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>352</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>353</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>354</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>355</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>356</v>
+        <v>56</v>
       </c>
       <c r="H6">
-        <v>1842</v>
+        <v>1848</v>
       </c>
       <c r="I6" t="s">
-        <v>357</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>358</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
         <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>359</v>
+        <v>59</v>
       </c>
       <c r="M6" t="s">
-        <v>360</v>
+        <v>60</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
       </c>
       <c r="O6">
-        <v>1842</v>
+        <v>1848</v>
       </c>
       <c r="Q6">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
-      <c r="S6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>322</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>325</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>326</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>327</v>
+        <v>68</v>
       </c>
       <c r="H7">
-        <v>1842</v>
+        <v>1857</v>
       </c>
       <c r="I7" t="s">
-        <v>328</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="K7" t="s">
         <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>329</v>
+        <v>71</v>
       </c>
       <c r="M7" t="s">
-        <v>330</v>
+        <v>72</v>
       </c>
       <c r="O7">
-        <v>1842</v>
-      </c>
-      <c r="Q7">
-        <v>31</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
+        <v>1857</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>469</v>
+      </c>
+      <c r="R7" t="s">
+        <v>469</v>
       </c>
       <c r="S7" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+      <c r="T7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="H8">
-        <v>1842</v>
+        <v>1857</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="K8" t="s">
         <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="M8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="O8">
-        <v>1842</v>
-      </c>
-      <c r="Q8">
-        <v>20</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
+        <v>1857</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>469</v>
+      </c>
+      <c r="R8" t="s">
+        <v>469</v>
       </c>
       <c r="S8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+      <c r="T8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>414</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>415</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>416</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>417</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>418</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>419</v>
+        <v>86</v>
       </c>
       <c r="H9">
-        <v>1842</v>
+        <v>1859</v>
       </c>
       <c r="I9" t="s">
-        <v>420</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
-        <v>421</v>
+        <v>70</v>
       </c>
       <c r="K9" t="s">
         <v>25</v>
       </c>
       <c r="L9" t="s">
-        <v>422</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="O9">
-        <v>1842</v>
-      </c>
-      <c r="Q9">
-        <v>24</v>
-      </c>
-      <c r="R9">
-        <v>10</v>
+        <v>1859</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>469</v>
+      </c>
+      <c r="R9" t="s">
+        <v>469</v>
       </c>
       <c r="S9" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+      <c r="T9" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>307</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>308</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>309</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>310</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>311</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>312</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>313</v>
+        <v>95</v>
       </c>
       <c r="H10">
-        <v>1844</v>
+        <v>1849</v>
       </c>
       <c r="I10" t="s">
-        <v>314</v>
+        <v>96</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s">
         <v>25</v>
       </c>
       <c r="L10" t="s">
-        <v>315</v>
+        <v>98</v>
       </c>
       <c r="M10" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="O10">
-        <v>1844</v>
+        <v>1849</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>442</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>433</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>443</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>444</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>436</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>445</v>
+        <v>104</v>
       </c>
       <c r="H11">
-        <v>1844</v>
+        <v>1850</v>
       </c>
       <c r="I11" t="s">
-        <v>446</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
         <v>25</v>
       </c>
       <c r="L11" t="s">
-        <v>447</v>
+        <v>98</v>
       </c>
       <c r="M11" t="s">
-        <v>330</v>
+        <v>99</v>
       </c>
       <c r="O11">
-        <v>1844</v>
+        <v>1850</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
-      <c r="S11" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -2943,705 +2965,750 @@
         <v>1845</v>
       </c>
       <c r="Q12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="R12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="S12" t="s">
+        <v>469</v>
+      </c>
+      <c r="T12" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="H13">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="I13" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s">
         <v>25</v>
       </c>
       <c r="L13" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="O13">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="Q13">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
-      <c r="S13" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>470</v>
+      </c>
+      <c r="U13" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>316</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>308</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>317</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
-        <v>318</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>311</v>
+        <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>319</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>320</v>
+        <v>124</v>
       </c>
       <c r="H14">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="I14" t="s">
-        <v>321</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s">
         <v>25</v>
       </c>
       <c r="L14" t="s">
-        <v>315</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="O14">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
-      <c r="S14" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>369</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>370</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>371</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>372</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>373</v>
+        <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>319</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>374</v>
+        <v>137</v>
       </c>
       <c r="H15">
-        <v>1846</v>
+        <v>1849</v>
       </c>
       <c r="I15" t="s">
-        <v>375</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s">
         <v>25</v>
       </c>
       <c r="L15" t="s">
-        <v>376</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s">
-        <v>377</v>
+        <v>117</v>
       </c>
       <c r="O15">
-        <v>1846</v>
+        <v>1849</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
-      <c r="S15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>378</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>370</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
-        <v>379</v>
+        <v>143</v>
       </c>
       <c r="D16" t="s">
-        <v>380</v>
+        <v>144</v>
       </c>
       <c r="E16" t="s">
-        <v>373</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
-        <v>319</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>381</v>
+        <v>146</v>
       </c>
       <c r="H16">
-        <v>1846</v>
+        <v>1852</v>
       </c>
       <c r="I16" t="s">
-        <v>382</v>
+        <v>147</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s">
         <v>25</v>
       </c>
       <c r="L16" t="s">
-        <v>376</v>
+        <v>149</v>
       </c>
       <c r="M16" t="s">
-        <v>377</v>
+        <v>150</v>
       </c>
       <c r="O16">
-        <v>1846</v>
-      </c>
-      <c r="Q16">
-        <v>18</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
+        <v>1852</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>469</v>
+      </c>
+      <c r="R16" t="s">
+        <v>469</v>
       </c>
       <c r="S16" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+      <c r="T16" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>383</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
-        <v>370</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
-        <v>384</v>
+        <v>153</v>
       </c>
       <c r="D17" t="s">
-        <v>385</v>
+        <v>154</v>
       </c>
       <c r="E17" t="s">
-        <v>373</v>
+        <v>155</v>
       </c>
       <c r="F17" t="s">
-        <v>319</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
-        <v>386</v>
+        <v>157</v>
       </c>
       <c r="H17">
-        <v>1846</v>
+        <v>1859</v>
       </c>
       <c r="I17" t="s">
-        <v>387</v>
+        <v>158</v>
       </c>
       <c r="J17" t="s">
-        <v>388</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
         <v>25</v>
       </c>
       <c r="L17" t="s">
-        <v>376</v>
+        <v>160</v>
       </c>
       <c r="M17" t="s">
-        <v>377</v>
+        <v>72</v>
       </c>
       <c r="O17">
-        <v>1846</v>
-      </c>
-      <c r="Q17">
-        <v>20</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
+        <v>1859</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>469</v>
+      </c>
+      <c r="R17" t="s">
+        <v>469</v>
       </c>
       <c r="S17" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+      <c r="T17" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>389</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>370</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>390</v>
+        <v>163</v>
       </c>
       <c r="D18" t="s">
-        <v>391</v>
+        <v>164</v>
       </c>
       <c r="E18" t="s">
-        <v>373</v>
+        <v>165</v>
       </c>
       <c r="F18" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
-        <v>392</v>
+        <v>167</v>
       </c>
       <c r="H18">
-        <v>1848</v>
+        <v>1864</v>
       </c>
       <c r="I18" t="s">
-        <v>393</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>394</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
         <v>25</v>
       </c>
       <c r="L18" t="s">
-        <v>395</v>
+        <v>170</v>
       </c>
       <c r="M18" t="s">
-        <v>377</v>
+        <v>171</v>
       </c>
       <c r="O18">
-        <v>1848</v>
+        <v>1864</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R18">
-        <v>10</v>
-      </c>
-      <c r="S18" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>396</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s">
-        <v>370</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s">
-        <v>397</v>
+        <v>174</v>
       </c>
       <c r="D19" t="s">
-        <v>398</v>
+        <v>175</v>
       </c>
       <c r="E19" t="s">
-        <v>373</v>
+        <v>176</v>
       </c>
       <c r="F19" t="s">
-        <v>227</v>
+        <v>67</v>
       </c>
       <c r="G19" t="s">
-        <v>399</v>
+        <v>177</v>
       </c>
       <c r="H19">
-        <v>1848</v>
+        <v>1857</v>
       </c>
       <c r="I19" t="s">
-        <v>400</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>401</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
         <v>25</v>
       </c>
       <c r="L19" t="s">
-        <v>395</v>
+        <v>180</v>
       </c>
       <c r="M19" t="s">
-        <v>377</v>
+        <v>72</v>
       </c>
       <c r="O19">
-        <v>1848</v>
-      </c>
-      <c r="Q19">
-        <v>7</v>
-      </c>
-      <c r="R19">
-        <v>10</v>
+        <v>1857</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>469</v>
+      </c>
+      <c r="R19" t="s">
+        <v>469</v>
       </c>
       <c r="S19" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+      <c r="T19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>402</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>370</v>
+        <v>162</v>
       </c>
       <c r="C20" t="s">
-        <v>403</v>
+        <v>182</v>
       </c>
       <c r="D20" t="s">
-        <v>404</v>
+        <v>183</v>
       </c>
       <c r="E20" t="s">
-        <v>373</v>
+        <v>165</v>
       </c>
       <c r="F20" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
-        <v>405</v>
+        <v>185</v>
       </c>
       <c r="H20">
-        <v>1848</v>
+        <v>1866</v>
       </c>
       <c r="I20" t="s">
-        <v>406</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>407</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
         <v>25</v>
       </c>
       <c r="L20" t="s">
-        <v>395</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="O20">
-        <v>1848</v>
-      </c>
-      <c r="Q20">
-        <v>5</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
+        <v>1866</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>469</v>
+      </c>
+      <c r="R20" t="s">
+        <v>469</v>
       </c>
       <c r="S20" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+      <c r="T20" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>408</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s">
-        <v>370</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s">
-        <v>409</v>
+        <v>191</v>
       </c>
       <c r="D21" t="s">
-        <v>410</v>
+        <v>192</v>
       </c>
       <c r="E21" t="s">
-        <v>373</v>
+        <v>193</v>
       </c>
       <c r="F21" t="s">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c r="G21" t="s">
-        <v>411</v>
+        <v>194</v>
       </c>
       <c r="H21">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="I21" t="s">
-        <v>412</v>
+        <v>195</v>
       </c>
       <c r="J21" t="s">
-        <v>394</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s">
         <v>25</v>
       </c>
       <c r="L21" t="s">
-        <v>395</v>
+        <v>197</v>
       </c>
       <c r="M21" t="s">
-        <v>377</v>
+        <v>117</v>
       </c>
       <c r="O21">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
-      <c r="S21" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C22" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D22" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="E22" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="F22" t="s">
-        <v>227</v>
+        <v>67</v>
       </c>
       <c r="G22" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="H22">
-        <v>1848</v>
+        <v>1857</v>
       </c>
       <c r="I22" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="J22" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="K22" t="s">
         <v>25</v>
       </c>
       <c r="L22" t="s">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="M22" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="O22">
-        <v>1848</v>
-      </c>
-      <c r="Q22">
-        <v>16</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
+        <v>1857</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>469</v>
+      </c>
+      <c r="R22" t="s">
+        <v>469</v>
       </c>
       <c r="S22" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+      <c r="T22" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>432</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s">
-        <v>433</v>
+        <v>199</v>
       </c>
       <c r="C23" t="s">
-        <v>434</v>
+        <v>200</v>
       </c>
       <c r="D23" t="s">
-        <v>435</v>
+        <v>201</v>
       </c>
       <c r="E23" t="s">
-        <v>436</v>
+        <v>202</v>
       </c>
       <c r="F23" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="G23" t="s">
-        <v>437</v>
+        <v>203</v>
       </c>
       <c r="H23">
-        <v>1848</v>
+        <v>1859</v>
       </c>
       <c r="I23" t="s">
-        <v>438</v>
+        <v>204</v>
       </c>
       <c r="J23" t="s">
-        <v>439</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s">
         <v>25</v>
       </c>
       <c r="L23" t="s">
-        <v>440</v>
+        <v>206</v>
       </c>
       <c r="M23" t="s">
-        <v>441</v>
+        <v>207</v>
       </c>
       <c r="O23">
-        <v>1848</v>
-      </c>
-      <c r="Q23">
-        <v>11</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
+        <v>1859</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>469</v>
+      </c>
+      <c r="R23" t="s">
+        <v>469</v>
       </c>
       <c r="S23" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+      <c r="T23" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="G24" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="H24">
-        <v>1849</v>
+        <v>1860</v>
       </c>
       <c r="I24" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="J24" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="K24" t="s">
         <v>25</v>
       </c>
       <c r="L24" t="s">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="M24" t="s">
-        <v>99</v>
+        <v>214</v>
       </c>
       <c r="O24">
-        <v>1849</v>
+        <v>1860</v>
       </c>
       <c r="Q24">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="R24">
-        <v>10</v>
-      </c>
-      <c r="S24" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="E25" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="G25" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="H25">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="I25" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="J25" t="s">
-        <v>139</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s">
         <v>25</v>
       </c>
       <c r="L25" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="M25" t="s">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="O25">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="R25">
         <v>0</v>
       </c>
-      <c r="S25" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>232</v>
       </c>
@@ -3690,729 +3757,768 @@
       <c r="R26">
         <v>0</v>
       </c>
-      <c r="S26" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>241</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="F27" t="s">
         <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27">
-        <v>1848</v>
+        <v>243</v>
       </c>
       <c r="I27" t="s">
-        <v>57</v>
+        <v>244</v>
       </c>
       <c r="J27" t="s">
-        <v>58</v>
+        <v>245</v>
       </c>
       <c r="K27" t="s">
         <v>25</v>
       </c>
       <c r="L27" t="s">
-        <v>59</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s">
         <v>60</v>
       </c>
       <c r="N27" t="s">
-        <v>61</v>
-      </c>
-      <c r="O27">
-        <v>1848</v>
+        <v>247</v>
+      </c>
+      <c r="O27" t="s">
+        <v>464</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
-      <c r="S27" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C28" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D28" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E28" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G28" t="s">
-        <v>243</v>
+        <v>253</v>
+      </c>
+      <c r="H28">
+        <v>1857</v>
       </c>
       <c r="I28" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="J28" t="s">
-        <v>245</v>
+        <v>70</v>
       </c>
       <c r="K28" t="s">
         <v>25</v>
       </c>
       <c r="L28" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s">
-        <v>60</v>
-      </c>
-      <c r="N28" t="s">
-        <v>247</v>
-      </c>
-      <c r="O28" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q28">
-        <v>28</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
+        <v>214</v>
+      </c>
+      <c r="O28">
+        <v>1857</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>469</v>
+      </c>
+      <c r="R28" t="s">
+        <v>469</v>
       </c>
       <c r="S28" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+      <c r="T28" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>331</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s">
-        <v>308</v>
+        <v>249</v>
       </c>
       <c r="C29" t="s">
-        <v>332</v>
+        <v>257</v>
       </c>
       <c r="D29" t="s">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="E29" t="s">
-        <v>311</v>
+        <v>252</v>
       </c>
       <c r="F29" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="G29" t="s">
-        <v>334</v>
+        <v>259</v>
       </c>
       <c r="H29">
-        <v>1850</v>
+        <v>1857</v>
       </c>
       <c r="I29" t="s">
-        <v>335</v>
+        <v>260</v>
       </c>
       <c r="J29" t="s">
-        <v>336</v>
+        <v>70</v>
       </c>
       <c r="K29" t="s">
         <v>25</v>
       </c>
       <c r="L29" t="s">
-        <v>329</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s">
-        <v>330</v>
+        <v>72</v>
       </c>
       <c r="O29">
-        <v>1850</v>
-      </c>
-      <c r="Q29">
-        <v>14</v>
-      </c>
-      <c r="R29">
-        <v>15</v>
+        <v>1857</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>469</v>
+      </c>
+      <c r="R29" t="s">
+        <v>469</v>
       </c>
       <c r="S29" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+      <c r="T29" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>337</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="C30" t="s">
-        <v>338</v>
+        <v>264</v>
       </c>
       <c r="D30" t="s">
-        <v>339</v>
+        <v>265</v>
       </c>
       <c r="E30" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="G30" t="s">
-        <v>340</v>
+        <v>267</v>
       </c>
       <c r="H30">
-        <v>1850</v>
+        <v>1857</v>
       </c>
       <c r="I30" t="s">
-        <v>341</v>
+        <v>268</v>
       </c>
       <c r="J30" t="s">
-        <v>196</v>
+        <v>269</v>
       </c>
       <c r="K30" t="s">
         <v>25</v>
       </c>
       <c r="L30" t="s">
-        <v>329</v>
+        <v>270</v>
       </c>
       <c r="M30" t="s">
-        <v>330</v>
+        <v>72</v>
       </c>
       <c r="O30">
-        <v>1850</v>
-      </c>
-      <c r="Q30">
-        <v>9</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
+        <v>1857</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>469</v>
+      </c>
+      <c r="R30" t="s">
+        <v>469</v>
       </c>
       <c r="S30" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+      <c r="T30" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>263</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>273</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
+        <v>266</v>
       </c>
       <c r="F31" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="G31" t="s">
-        <v>104</v>
+        <v>274</v>
       </c>
       <c r="H31">
-        <v>1850</v>
+        <v>1857</v>
       </c>
       <c r="I31" t="s">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="J31" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="K31" t="s">
         <v>25</v>
       </c>
       <c r="L31" t="s">
-        <v>98</v>
+        <v>276</v>
       </c>
       <c r="M31" t="s">
-        <v>99</v>
+        <v>277</v>
       </c>
       <c r="O31">
-        <v>1850</v>
-      </c>
-      <c r="Q31">
-        <v>20</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
+        <v>1857</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>469</v>
+      </c>
+      <c r="R31" t="s">
+        <v>469</v>
       </c>
       <c r="S31" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+      <c r="T31" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>278</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>279</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>281</v>
       </c>
       <c r="E32" t="s">
-        <v>145</v>
+        <v>282</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>283</v>
       </c>
       <c r="G32" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="H32">
-        <v>1852</v>
+        <v>1859</v>
       </c>
       <c r="I32" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="J32" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="K32" t="s">
         <v>25</v>
       </c>
       <c r="L32" t="s">
-        <v>149</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s">
-        <v>150</v>
+        <v>288</v>
       </c>
       <c r="O32">
-        <v>1852</v>
+        <v>1859</v>
       </c>
       <c r="Q32" t="s">
+        <v>469</v>
+      </c>
+      <c r="R32" t="s">
+        <v>469</v>
+      </c>
+      <c r="S32" t="s">
+        <v>469</v>
+      </c>
+      <c r="T32" t="s">
         <v>470</v>
       </c>
-      <c r="R32" t="s">
-        <v>470</v>
-      </c>
-      <c r="S32" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>290</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>291</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>292</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>294</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="H33">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="I33" t="s">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="K33" t="s">
         <v>25</v>
       </c>
       <c r="L33" t="s">
-        <v>26</v>
+        <v>298</v>
       </c>
       <c r="M33" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="O33">
-        <v>1852</v>
-      </c>
-      <c r="Q33">
-        <v>17</v>
-      </c>
-      <c r="R33">
-        <v>8</v>
+        <v>1855</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>469</v>
+      </c>
+      <c r="R33" t="s">
+        <v>469</v>
       </c>
       <c r="S33" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+      <c r="T33" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="C34" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="D34" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="E34" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="F34" t="s">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G34" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="H34">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="I34" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="J34" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K34" t="s">
         <v>25</v>
       </c>
       <c r="L34" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="M34" t="s">
-        <v>117</v>
+        <v>306</v>
       </c>
       <c r="O34">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="Q34" t="s">
+        <v>469</v>
+      </c>
+      <c r="R34" t="s">
+        <v>469</v>
+      </c>
+      <c r="S34" t="s">
+        <v>469</v>
+      </c>
+      <c r="T34" t="s">
         <v>470</v>
       </c>
-      <c r="R34" t="s">
-        <v>470</v>
-      </c>
-      <c r="S34" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="C35" t="s">
-        <v>250</v>
+        <v>309</v>
       </c>
       <c r="D35" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="E35" t="s">
-        <v>252</v>
+        <v>311</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>312</v>
       </c>
       <c r="G35" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="H35">
-        <v>1857</v>
+        <v>1844</v>
       </c>
       <c r="I35" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="J35" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="K35" t="s">
         <v>25</v>
       </c>
       <c r="L35" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="M35" t="s">
-        <v>214</v>
+        <v>27</v>
       </c>
       <c r="O35">
-        <v>1857</v>
-      </c>
-      <c r="Q35" t="s">
+        <v>1844</v>
+      </c>
+      <c r="Q35">
+        <v>20</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35" t="s">
         <v>470</v>
       </c>
-      <c r="R35" t="s">
-        <v>470</v>
-      </c>
-      <c r="S35" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="C36" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="D36" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="E36" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
       <c r="G36" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="H36">
-        <v>1857</v>
+        <v>1846</v>
       </c>
       <c r="I36" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="J36" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="K36" t="s">
         <v>25</v>
       </c>
       <c r="L36" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="M36" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="O36">
-        <v>1857</v>
-      </c>
-      <c r="Q36" t="s">
+        <v>1846</v>
+      </c>
+      <c r="Q36">
+        <v>17</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36" t="s">
         <v>470</v>
       </c>
-      <c r="R36" t="s">
-        <v>470</v>
-      </c>
-      <c r="S36" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>172</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s">
-        <v>173</v>
+        <v>323</v>
       </c>
       <c r="C37" t="s">
-        <v>174</v>
+        <v>324</v>
       </c>
       <c r="D37" t="s">
-        <v>175</v>
+        <v>325</v>
       </c>
       <c r="E37" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>177</v>
+        <v>327</v>
       </c>
       <c r="H37">
-        <v>1857</v>
+        <v>1842</v>
       </c>
       <c r="I37" t="s">
-        <v>178</v>
+        <v>328</v>
       </c>
       <c r="J37" t="s">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="K37" t="s">
         <v>25</v>
       </c>
       <c r="L37" t="s">
-        <v>180</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s">
-        <v>72</v>
+        <v>330</v>
       </c>
       <c r="O37">
-        <v>1857</v>
-      </c>
-      <c r="Q37" t="s">
+        <v>1842</v>
+      </c>
+      <c r="Q37">
+        <v>31</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
         <v>470</v>
       </c>
-      <c r="R37" t="s">
-        <v>470</v>
-      </c>
-      <c r="S37" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>208</v>
+        <v>331</v>
       </c>
       <c r="B38" t="s">
-        <v>199</v>
+        <v>308</v>
       </c>
       <c r="C38" t="s">
-        <v>209</v>
+        <v>332</v>
       </c>
       <c r="D38" t="s">
-        <v>210</v>
+        <v>333</v>
       </c>
       <c r="E38" t="s">
-        <v>202</v>
+        <v>311</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="G38" t="s">
-        <v>211</v>
+        <v>334</v>
       </c>
       <c r="H38">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="I38" t="s">
-        <v>212</v>
+        <v>335</v>
       </c>
       <c r="J38" t="s">
-        <v>213</v>
+        <v>336</v>
       </c>
       <c r="K38" t="s">
         <v>25</v>
       </c>
       <c r="L38" t="s">
-        <v>206</v>
+        <v>329</v>
       </c>
       <c r="M38" t="s">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="O38">
-        <v>1857</v>
-      </c>
-      <c r="Q38" t="s">
+        <v>1850</v>
+      </c>
+      <c r="Q38">
+        <v>14</v>
+      </c>
+      <c r="R38">
+        <v>15</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38" t="s">
         <v>470</v>
       </c>
-      <c r="R38" t="s">
-        <v>470</v>
-      </c>
-      <c r="S38" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>256</v>
+        <v>337</v>
       </c>
       <c r="B39" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="C39" t="s">
-        <v>257</v>
+        <v>338</v>
       </c>
       <c r="D39" t="s">
-        <v>258</v>
+        <v>339</v>
       </c>
       <c r="E39" t="s">
-        <v>252</v>
+        <v>311</v>
       </c>
       <c r="F39" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="G39" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
       <c r="H39">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="I39" t="s">
-        <v>260</v>
+        <v>341</v>
       </c>
       <c r="J39" t="s">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="K39" t="s">
         <v>25</v>
       </c>
       <c r="L39" t="s">
-        <v>261</v>
+        <v>329</v>
       </c>
       <c r="M39" t="s">
-        <v>72</v>
+        <v>330</v>
       </c>
       <c r="O39">
-        <v>1857</v>
-      </c>
-      <c r="Q39" t="s">
+        <v>1850</v>
+      </c>
+      <c r="Q39">
+        <v>9</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39" t="s">
         <v>470</v>
       </c>
-      <c r="R39" t="s">
-        <v>470</v>
-      </c>
-      <c r="S39" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>343</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>344</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>345</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>346</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>347</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>348</v>
       </c>
       <c r="H40">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="I40" t="s">
-        <v>69</v>
+        <v>349</v>
       </c>
       <c r="J40" t="s">
         <v>70</v>
@@ -4421,876 +4527,933 @@
         <v>25</v>
       </c>
       <c r="L40" t="s">
-        <v>71</v>
+        <v>350</v>
       </c>
       <c r="M40" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="O40">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="Q40" t="s">
+        <v>469</v>
+      </c>
+      <c r="R40" t="s">
+        <v>469</v>
+      </c>
+      <c r="S40" t="s">
+        <v>469</v>
+      </c>
+      <c r="T40" t="s">
         <v>470</v>
       </c>
-      <c r="R40" t="s">
-        <v>470</v>
-      </c>
-      <c r="S40" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>262</v>
+        <v>351</v>
       </c>
       <c r="B41" t="s">
-        <v>263</v>
+        <v>352</v>
       </c>
       <c r="C41" t="s">
-        <v>264</v>
+        <v>353</v>
       </c>
       <c r="D41" t="s">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="E41" t="s">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="H41">
-        <v>1857</v>
+        <v>1842</v>
       </c>
       <c r="I41" t="s">
-        <v>268</v>
+        <v>357</v>
       </c>
       <c r="J41" t="s">
-        <v>269</v>
+        <v>358</v>
       </c>
       <c r="K41" t="s">
         <v>25</v>
       </c>
       <c r="L41" t="s">
-        <v>270</v>
+        <v>359</v>
       </c>
       <c r="M41" t="s">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="O41">
-        <v>1857</v>
-      </c>
-      <c r="Q41" t="s">
+        <v>1842</v>
+      </c>
+      <c r="Q41">
+        <v>23</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41" t="s">
         <v>470</v>
       </c>
-      <c r="R41" t="s">
-        <v>470</v>
-      </c>
-      <c r="S41" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>271</v>
+        <v>361</v>
       </c>
       <c r="B42" t="s">
-        <v>263</v>
+        <v>343</v>
       </c>
       <c r="C42" t="s">
-        <v>272</v>
+        <v>362</v>
       </c>
       <c r="D42" t="s">
-        <v>273</v>
+        <v>363</v>
       </c>
       <c r="E42" t="s">
-        <v>266</v>
+        <v>346</v>
       </c>
       <c r="F42" t="s">
         <v>67</v>
       </c>
       <c r="G42" t="s">
-        <v>274</v>
+        <v>364</v>
       </c>
       <c r="H42">
         <v>1857</v>
       </c>
       <c r="I42" t="s">
-        <v>275</v>
+        <v>365</v>
       </c>
       <c r="J42" t="s">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="K42" t="s">
         <v>25</v>
       </c>
       <c r="L42" t="s">
-        <v>276</v>
+        <v>366</v>
       </c>
       <c r="M42" t="s">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="O42">
         <v>1857</v>
       </c>
       <c r="Q42" t="s">
+        <v>469</v>
+      </c>
+      <c r="R42" t="s">
+        <v>469</v>
+      </c>
+      <c r="S42" t="s">
+        <v>469</v>
+      </c>
+      <c r="T42" t="s">
         <v>470</v>
       </c>
-      <c r="R42" t="s">
-        <v>470</v>
-      </c>
-      <c r="S42" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>299</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
-        <v>263</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
-        <v>300</v>
+        <v>129</v>
       </c>
       <c r="D43" t="s">
-        <v>301</v>
+        <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>266</v>
+        <v>111</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="G43" t="s">
-        <v>302</v>
+        <v>124</v>
       </c>
       <c r="H43">
-        <v>1857</v>
+        <v>1842</v>
       </c>
       <c r="I43" t="s">
-        <v>303</v>
+        <v>367</v>
       </c>
       <c r="J43" t="s">
-        <v>304</v>
+        <v>126</v>
       </c>
       <c r="K43" t="s">
         <v>25</v>
       </c>
       <c r="L43" t="s">
-        <v>305</v>
+        <v>368</v>
       </c>
       <c r="M43" t="s">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="O43">
-        <v>1857</v>
-      </c>
-      <c r="Q43" t="s">
+        <v>1842</v>
+      </c>
+      <c r="Q43">
+        <v>36</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43" t="s">
         <v>470</v>
       </c>
-      <c r="R43" t="s">
-        <v>470</v>
-      </c>
-      <c r="S43" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>369</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>370</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>371</v>
       </c>
       <c r="D44" t="s">
-        <v>75</v>
+        <v>372</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>373</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
       <c r="G44" t="s">
-        <v>76</v>
+        <v>374</v>
       </c>
       <c r="H44">
-        <v>1857</v>
+        <v>1846</v>
       </c>
       <c r="I44" t="s">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="J44" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="K44" t="s">
         <v>25</v>
       </c>
       <c r="L44" t="s">
-        <v>78</v>
+        <v>376</v>
       </c>
       <c r="M44" t="s">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="O44">
-        <v>1857</v>
-      </c>
-      <c r="Q44" t="s">
+        <v>1846</v>
+      </c>
+      <c r="Q44">
+        <v>18</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44" t="s">
         <v>470</v>
       </c>
-      <c r="R44" t="s">
-        <v>470</v>
-      </c>
-      <c r="S44" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>457</v>
+        <v>378</v>
       </c>
       <c r="B45" t="s">
-        <v>449</v>
+        <v>370</v>
       </c>
       <c r="C45" t="s">
-        <v>458</v>
+        <v>379</v>
       </c>
       <c r="D45" t="s">
-        <v>459</v>
+        <v>380</v>
       </c>
       <c r="E45" t="s">
-        <v>452</v>
+        <v>373</v>
       </c>
       <c r="F45" t="s">
-        <v>453</v>
+        <v>319</v>
       </c>
       <c r="G45" t="s">
-        <v>460</v>
+        <v>381</v>
       </c>
       <c r="H45">
-        <v>1857</v>
+        <v>1846</v>
       </c>
       <c r="I45" t="s">
-        <v>461</v>
+        <v>382</v>
       </c>
       <c r="J45" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="K45" t="s">
         <v>25</v>
       </c>
       <c r="L45" t="s">
-        <v>462</v>
+        <v>376</v>
       </c>
       <c r="M45" t="s">
-        <v>72</v>
+        <v>377</v>
       </c>
       <c r="O45">
-        <v>1857</v>
-      </c>
-      <c r="Q45" t="s">
+        <v>1846</v>
+      </c>
+      <c r="Q45">
+        <v>18</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45" t="s">
         <v>470</v>
       </c>
-      <c r="R45" t="s">
-        <v>470</v>
-      </c>
-      <c r="S45" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>448</v>
+        <v>383</v>
       </c>
       <c r="B46" t="s">
-        <v>449</v>
+        <v>370</v>
       </c>
       <c r="C46" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="D46" t="s">
-        <v>451</v>
+        <v>385</v>
       </c>
       <c r="E46" t="s">
-        <v>452</v>
+        <v>373</v>
       </c>
       <c r="F46" t="s">
-        <v>453</v>
+        <v>319</v>
       </c>
       <c r="G46" t="s">
-        <v>454</v>
+        <v>386</v>
       </c>
       <c r="H46">
-        <v>1857</v>
+        <v>1846</v>
       </c>
       <c r="I46" t="s">
-        <v>455</v>
+        <v>387</v>
       </c>
       <c r="J46" t="s">
-        <v>70</v>
+        <v>388</v>
       </c>
       <c r="K46" t="s">
         <v>25</v>
       </c>
       <c r="L46" t="s">
-        <v>456</v>
+        <v>376</v>
       </c>
       <c r="M46" t="s">
         <v>377</v>
       </c>
       <c r="O46">
-        <v>1857</v>
-      </c>
-      <c r="Q46" t="s">
+        <v>1846</v>
+      </c>
+      <c r="Q46">
+        <v>20</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46" t="s">
         <v>470</v>
       </c>
-      <c r="R46" t="s">
-        <v>470</v>
-      </c>
-      <c r="S46" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>390</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
+        <v>391</v>
       </c>
       <c r="E47" t="s">
-        <v>84</v>
+        <v>373</v>
       </c>
       <c r="F47" t="s">
-        <v>85</v>
+        <v>227</v>
       </c>
       <c r="G47" t="s">
-        <v>86</v>
+        <v>392</v>
       </c>
       <c r="H47">
-        <v>1859</v>
+        <v>1848</v>
       </c>
       <c r="I47" t="s">
-        <v>87</v>
+        <v>393</v>
       </c>
       <c r="J47" t="s">
-        <v>70</v>
+        <v>394</v>
       </c>
       <c r="K47" t="s">
         <v>25</v>
       </c>
       <c r="L47" t="s">
-        <v>88</v>
+        <v>395</v>
       </c>
       <c r="M47" t="s">
-        <v>89</v>
+        <v>377</v>
       </c>
       <c r="O47">
-        <v>1859</v>
-      </c>
-      <c r="Q47" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Q47">
+        <v>10</v>
+      </c>
+      <c r="R47">
+        <v>10</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47" t="s">
         <v>470</v>
       </c>
-      <c r="R47" t="s">
-        <v>470</v>
-      </c>
-      <c r="S47" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>278</v>
+        <v>396</v>
       </c>
       <c r="B48" t="s">
-        <v>279</v>
+        <v>370</v>
       </c>
       <c r="C48" t="s">
-        <v>280</v>
+        <v>397</v>
       </c>
       <c r="D48" t="s">
-        <v>281</v>
+        <v>398</v>
       </c>
       <c r="E48" t="s">
-        <v>282</v>
+        <v>373</v>
       </c>
       <c r="F48" t="s">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="G48" t="s">
-        <v>284</v>
+        <v>399</v>
       </c>
       <c r="H48">
-        <v>1859</v>
+        <v>1848</v>
       </c>
       <c r="I48" t="s">
-        <v>285</v>
+        <v>400</v>
       </c>
       <c r="J48" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="K48" t="s">
         <v>25</v>
       </c>
       <c r="L48" t="s">
-        <v>287</v>
+        <v>395</v>
       </c>
       <c r="M48" t="s">
-        <v>288</v>
+        <v>377</v>
       </c>
       <c r="O48">
-        <v>1859</v>
-      </c>
-      <c r="Q48" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Q48">
+        <v>7</v>
+      </c>
+      <c r="R48">
+        <v>10</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48" t="s">
         <v>470</v>
       </c>
-      <c r="R48" t="s">
-        <v>470</v>
-      </c>
-      <c r="S48" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="B49" t="s">
-        <v>424</v>
+        <v>370</v>
       </c>
       <c r="C49" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="D49" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="E49" t="s">
-        <v>427</v>
+        <v>373</v>
       </c>
       <c r="F49" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="G49" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="H49">
-        <v>1859</v>
+        <v>1848</v>
       </c>
       <c r="I49" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="J49" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="K49" t="s">
         <v>25</v>
       </c>
       <c r="L49" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="M49" t="s">
-        <v>171</v>
+        <v>377</v>
       </c>
       <c r="O49">
-        <v>1859</v>
-      </c>
-      <c r="Q49" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Q49">
+        <v>5</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49" t="s">
         <v>470</v>
       </c>
-      <c r="R49" t="s">
-        <v>470</v>
-      </c>
-      <c r="S49" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>408</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
+        <v>370</v>
       </c>
       <c r="C50" t="s">
-        <v>153</v>
+        <v>409</v>
       </c>
       <c r="D50" t="s">
-        <v>154</v>
+        <v>410</v>
       </c>
       <c r="E50" t="s">
-        <v>155</v>
+        <v>373</v>
       </c>
       <c r="F50" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="G50" t="s">
-        <v>157</v>
+        <v>411</v>
       </c>
       <c r="H50">
-        <v>1859</v>
+        <v>1848</v>
       </c>
       <c r="I50" t="s">
-        <v>158</v>
+        <v>412</v>
       </c>
       <c r="J50" t="s">
-        <v>159</v>
+        <v>394</v>
       </c>
       <c r="K50" t="s">
         <v>25</v>
       </c>
       <c r="L50" t="s">
-        <v>160</v>
+        <v>395</v>
       </c>
       <c r="M50" t="s">
-        <v>72</v>
+        <v>377</v>
       </c>
       <c r="O50">
-        <v>1859</v>
-      </c>
-      <c r="Q50" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Q50">
+        <v>8</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50" t="s">
         <v>470</v>
       </c>
-      <c r="R50" t="s">
-        <v>470</v>
-      </c>
-      <c r="S50" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>198</v>
+        <v>413</v>
       </c>
       <c r="B51" t="s">
-        <v>199</v>
+        <v>414</v>
       </c>
       <c r="C51" t="s">
-        <v>200</v>
+        <v>415</v>
       </c>
       <c r="D51" t="s">
-        <v>201</v>
+        <v>416</v>
       </c>
       <c r="E51" t="s">
-        <v>202</v>
+        <v>417</v>
       </c>
       <c r="F51" t="s">
-        <v>156</v>
+        <v>418</v>
       </c>
       <c r="G51" t="s">
-        <v>203</v>
+        <v>419</v>
       </c>
       <c r="H51">
-        <v>1859</v>
+        <v>1842</v>
       </c>
       <c r="I51" t="s">
-        <v>204</v>
+        <v>420</v>
       </c>
       <c r="J51" t="s">
-        <v>205</v>
+        <v>421</v>
       </c>
       <c r="K51" t="s">
         <v>25</v>
       </c>
       <c r="L51" t="s">
-        <v>206</v>
+        <v>422</v>
       </c>
       <c r="M51" t="s">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="O51">
-        <v>1859</v>
-      </c>
-      <c r="Q51" t="s">
+        <v>1842</v>
+      </c>
+      <c r="Q51">
+        <v>24</v>
+      </c>
+      <c r="R51">
+        <v>10</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51" t="s">
         <v>470</v>
       </c>
-      <c r="R51" t="s">
-        <v>470</v>
-      </c>
-      <c r="S51" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>342</v>
+        <v>423</v>
       </c>
       <c r="B52" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="C52" t="s">
-        <v>344</v>
+        <v>425</v>
       </c>
       <c r="D52" t="s">
-        <v>345</v>
+        <v>426</v>
       </c>
       <c r="E52" t="s">
-        <v>346</v>
+        <v>427</v>
       </c>
       <c r="F52" t="s">
-        <v>347</v>
+        <v>156</v>
       </c>
       <c r="G52" t="s">
-        <v>348</v>
+        <v>428</v>
       </c>
       <c r="H52">
         <v>1859</v>
       </c>
       <c r="I52" t="s">
-        <v>349</v>
+        <v>429</v>
       </c>
       <c r="J52" t="s">
-        <v>70</v>
+        <v>430</v>
       </c>
       <c r="K52" t="s">
         <v>25</v>
       </c>
       <c r="L52" t="s">
-        <v>350</v>
+        <v>431</v>
       </c>
       <c r="M52" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="O52">
         <v>1859</v>
       </c>
       <c r="Q52" t="s">
+        <v>469</v>
+      </c>
+      <c r="R52" t="s">
+        <v>469</v>
+      </c>
+      <c r="S52" t="s">
+        <v>469</v>
+      </c>
+      <c r="T52" t="s">
         <v>470</v>
       </c>
-      <c r="R52" t="s">
-        <v>470</v>
-      </c>
-      <c r="S52" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>215</v>
+        <v>432</v>
       </c>
       <c r="B53" t="s">
-        <v>216</v>
+        <v>433</v>
       </c>
       <c r="C53" t="s">
-        <v>217</v>
+        <v>434</v>
       </c>
       <c r="D53" t="s">
-        <v>218</v>
+        <v>435</v>
       </c>
       <c r="E53" t="s">
-        <v>219</v>
+        <v>436</v>
       </c>
       <c r="F53" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="G53" t="s">
-        <v>221</v>
+        <v>437</v>
       </c>
       <c r="H53">
-        <v>1860</v>
+        <v>1848</v>
       </c>
       <c r="I53" t="s">
-        <v>222</v>
+        <v>438</v>
       </c>
       <c r="J53" t="s">
-        <v>223</v>
+        <v>439</v>
       </c>
       <c r="K53" t="s">
         <v>25</v>
       </c>
       <c r="L53" t="s">
-        <v>206</v>
+        <v>440</v>
       </c>
       <c r="M53" t="s">
-        <v>214</v>
+        <v>441</v>
       </c>
       <c r="O53">
-        <v>1860</v>
+        <v>1848</v>
       </c>
       <c r="Q53">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R53">
         <v>0</v>
       </c>
-      <c r="S53" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>442</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>433</v>
       </c>
       <c r="C54" t="s">
-        <v>163</v>
+        <v>443</v>
       </c>
       <c r="D54" t="s">
-        <v>164</v>
+        <v>444</v>
       </c>
       <c r="E54" t="s">
-        <v>165</v>
+        <v>436</v>
       </c>
       <c r="F54" t="s">
-        <v>166</v>
+        <v>312</v>
       </c>
       <c r="G54" t="s">
-        <v>167</v>
+        <v>445</v>
       </c>
       <c r="H54">
-        <v>1864</v>
+        <v>1844</v>
       </c>
       <c r="I54" t="s">
-        <v>168</v>
+        <v>446</v>
       </c>
       <c r="J54" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="K54" t="s">
         <v>25</v>
       </c>
       <c r="L54" t="s">
-        <v>170</v>
+        <v>447</v>
       </c>
       <c r="M54" t="s">
-        <v>171</v>
+        <v>330</v>
       </c>
       <c r="O54">
-        <v>1864</v>
+        <v>1844</v>
       </c>
       <c r="Q54">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="R54">
-        <v>5</v>
-      </c>
-      <c r="S54" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>448</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>449</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>450</v>
       </c>
       <c r="D55" t="s">
-        <v>46</v>
+        <v>451</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>452</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
+        <v>453</v>
       </c>
       <c r="G55" t="s">
-        <v>49</v>
+        <v>454</v>
       </c>
       <c r="H55">
-        <v>1865</v>
+        <v>1857</v>
       </c>
       <c r="I55" t="s">
-        <v>50</v>
+        <v>455</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="K55" t="s">
         <v>25</v>
       </c>
       <c r="L55" t="s">
-        <v>26</v>
+        <v>456</v>
       </c>
       <c r="M55" t="s">
-        <v>27</v>
+        <v>377</v>
       </c>
       <c r="O55">
-        <v>1865</v>
-      </c>
-      <c r="Q55">
-        <v>320</v>
+        <v>1857</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>469</v>
       </c>
       <c r="R55" t="s">
         <v>469</v>
       </c>
       <c r="S55" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+      <c r="T55" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>181</v>
+        <v>457</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>449</v>
       </c>
       <c r="C56" t="s">
-        <v>182</v>
+        <v>458</v>
       </c>
       <c r="D56" t="s">
-        <v>183</v>
+        <v>459</v>
       </c>
       <c r="E56" t="s">
-        <v>165</v>
+        <v>452</v>
       </c>
       <c r="F56" t="s">
-        <v>184</v>
+        <v>453</v>
       </c>
       <c r="G56" t="s">
-        <v>185</v>
+        <v>460</v>
       </c>
       <c r="H56">
-        <v>1866</v>
+        <v>1857</v>
       </c>
       <c r="I56" t="s">
-        <v>186</v>
+        <v>461</v>
       </c>
       <c r="J56" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="K56" t="s">
         <v>25</v>
       </c>
       <c r="L56" t="s">
-        <v>188</v>
+        <v>462</v>
       </c>
       <c r="M56" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="O56">
-        <v>1866</v>
+        <v>1857</v>
       </c>
       <c r="Q56" t="s">
+        <v>469</v>
+      </c>
+      <c r="R56" t="s">
+        <v>469</v>
+      </c>
+      <c r="S56" t="s">
+        <v>469</v>
+      </c>
+      <c r="T56" t="s">
         <v>470</v>
       </c>
-      <c r="R56" t="s">
-        <v>470</v>
-      </c>
-      <c r="S56" t="s">
-        <v>471</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T56">
-    <sortCondition ref="G1:G56"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U56">
+    <sortCondition ref="L2:L56"/>
+    <sortCondition ref="O2:O56"/>
   </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Message" prompt="value should be yes or no" sqref="T1:T1048576" xr:uid="{CB468148-2ADA-4249-93E3-C12AC81BCB25}">
+      <formula1>"yes, no"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>